--- a/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_2_five_bus_radial_grid_dyn_pf_sc_results_branch.xlsx
+++ b/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_2_five_bus_radial_grid_dyn_pf_sc_results_branch.xlsx
@@ -80,10 +80,10 @@
     <t>pf_q_to_mvar</t>
   </si>
   <si>
-    <t>pf_ikss_from_deg</t>
+    <t>pf_ikss_from_degree</t>
   </si>
   <si>
-    <t>pf_ikss_to_deg</t>
+    <t>pf_ikss_to_degree</t>
   </si>
   <si>
     <t>pf_vm_from_pu</t>
@@ -92,10 +92,10 @@
     <t>pf_vm_to_pu</t>
   </si>
   <si>
-    <t>pf_va_from_deg</t>
+    <t>pf_va_from_degree</t>
   </si>
   <si>
-    <t>pf_va_to_deg</t>
+    <t>pf_va_to_degree</t>
   </si>
   <si>
     <t>Line_0</t>
@@ -161,76 +161,76 @@
     <t>pf_p_c_to_mw</t>
   </si>
   <si>
-    <t>pf_q_a_from_mw</t>
+    <t>pf_q_a_from_mvar</t>
   </si>
   <si>
-    <t>pf_q_b_from_mw</t>
+    <t>pf_q_b_from_mvar</t>
   </si>
   <si>
-    <t>pf_q_c_from_mw</t>
+    <t>pf_q_c_from_mvar</t>
   </si>
   <si>
-    <t>pf_q_a_to_mw</t>
+    <t>pf_q_a_to_mvar</t>
   </si>
   <si>
-    <t>pf_q_b_to_mw</t>
+    <t>pf_q_b_to_mvar</t>
   </si>
   <si>
-    <t>pf_q_c_to_mw</t>
+    <t>pf_q_c_to_mvar</t>
   </si>
   <si>
-    <t>pf_ikss_a_from_deg</t>
+    <t>pf_ikss_a_from_degree</t>
   </si>
   <si>
-    <t>pf_ikss_b_from_deg</t>
+    <t>pf_ikss_b_from_degree</t>
   </si>
   <si>
-    <t>pf_ikss_c_from_deg</t>
+    <t>pf_ikss_c_from_degree</t>
   </si>
   <si>
-    <t>pf_ikss_a_to_deg</t>
+    <t>pf_ikss_a_to_degree</t>
   </si>
   <si>
-    <t>pf_ikss_b_to_deg</t>
+    <t>pf_ikss_b_to_degree</t>
   </si>
   <si>
-    <t>pf_ikss_c_to_deg</t>
+    <t>pf_ikss_c_to_degree</t>
   </si>
   <si>
     <t>pf_vm_a_from_pu</t>
   </si>
   <si>
-    <t>pf_vm_b_from_bus_pu</t>
+    <t>pf_vm_b_from_pu</t>
   </si>
   <si>
-    <t>pf_vm_c_from_bus_pu</t>
+    <t>pf_vm_c_from_pu</t>
   </si>
   <si>
-    <t>pf_vm_a_to_bus_pu</t>
+    <t>pf_vm_a_to_pu</t>
   </si>
   <si>
-    <t>pf_vm_b_to_bus_pu</t>
+    <t>pf_vm_b_to_pu</t>
   </si>
   <si>
-    <t>pf_vm_c_to_bus_pu</t>
+    <t>pf_vm_c_to_pu</t>
   </si>
   <si>
-    <t>pf_va_a_from_bus_deg</t>
+    <t>pf_va_a_from_degree</t>
   </si>
   <si>
-    <t>pf_va_b_from_bus_deg</t>
+    <t>pf_va_b_from_degree</t>
   </si>
   <si>
-    <t>pf_va_c_from_bus_deg</t>
+    <t>pf_va_c_from_degree</t>
   </si>
   <si>
-    <t>pf_va_a_to_bus_deg</t>
+    <t>pf_va_a_to_degree</t>
   </si>
   <si>
-    <t>pf_va_b_to_bus_deg</t>
+    <t>pf_va_b_to_degree</t>
   </si>
   <si>
-    <t>pf_va_c_to_bus_deg</t>
+    <t>pf_va_c_to_degree</t>
   </si>
 </sst>
 </file>

--- a/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_2_five_bus_radial_grid_dyn_pf_sc_results_branch.xlsx
+++ b/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_2_five_bus_radial_grid_dyn_pf_sc_results_branch.xlsx
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>87.32801736352474</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>77.77984578051343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -747,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>71.78826692943711</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>77.77984578051343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>71.7882669294371</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>77.77984578051343</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1063,22 +1063,22 @@
         <v>0.952627964804756</v>
       </c>
       <c r="AL2">
-        <v>-4.032688494405956E-12</v>
+        <v>7.515713026902094E-13</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>179.9999999999791</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999999899</v>
+        <v>-179.9999999999859</v>
       </c>
       <c r="AO2">
-        <v>-1.247867849525495E-11</v>
+        <v>5.734916888821314E-13</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>179.9999999999541</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999593</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1194,22 +1194,22 @@
         <v>0.952627964804756</v>
       </c>
       <c r="AL3">
-        <v>-1.467424743646772E-11</v>
+        <v>4.606928895877844E-13</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>179.9999999999478</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999999788</v>
+        <v>-179.9999999999519</v>
       </c>
       <c r="AO3">
-        <v>-1.247867849525495E-11</v>
+        <v>5.734916888821314E-13</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>179.9999999999541</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999593</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1325,22 +1325,22 @@
         <v>0.952627964804756</v>
       </c>
       <c r="AL4">
-        <v>-1.466564161011486E-11</v>
+        <v>4.56253149412285E-13</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>179.9999999999478</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999999788</v>
+        <v>-179.9999999999519</v>
       </c>
       <c r="AO4">
-        <v>-1.247867849525495E-11</v>
+        <v>5.734916888821314E-13</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>179.9999999999541</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999593</v>
       </c>
     </row>
   </sheetData>
@@ -1600,22 +1600,22 @@
         <v>0.9229411060011539</v>
       </c>
       <c r="AL2">
-        <v>17.92198046293677</v>
+        <v>2.748152076411849E-13</v>
       </c>
       <c r="AM2">
-        <v>-106.5279586928746</v>
+        <v>-140.8543229646633</v>
       </c>
       <c r="AN2">
-        <v>158.1868465769574</v>
+        <v>122.4159013159207</v>
       </c>
       <c r="AO2">
-        <v>16.25665454943076</v>
+        <v>2.394822226489772E-13</v>
       </c>
       <c r="AP2">
-        <v>-104.9129785376843</v>
+        <v>-142.8672784204022</v>
       </c>
       <c r="AQ2">
-        <v>160.9543898286496</v>
+        <v>128.2389811279577</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1731,22 +1731,22 @@
         <v>0.9229411060011539</v>
       </c>
       <c r="AL3">
-        <v>14.82588342075279</v>
+        <v>2.146144121994619E-13</v>
       </c>
       <c r="AM3">
-        <v>-103.653192268985</v>
+        <v>-144.8695745192862</v>
       </c>
       <c r="AN3">
-        <v>163.1035456589491</v>
+        <v>133.0893358579405</v>
       </c>
       <c r="AO3">
-        <v>16.25665454943076</v>
+        <v>2.394822226489772E-13</v>
       </c>
       <c r="AP3">
-        <v>-104.9129785376843</v>
+        <v>-142.8672784204022</v>
       </c>
       <c r="AQ3">
-        <v>160.9543898286496</v>
+        <v>128.2389811279577</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1862,22 +1862,22 @@
         <v>0.9229411060011539</v>
       </c>
       <c r="AL4">
-        <v>14.82588342075279</v>
+        <v>2.130701848144365E-13</v>
       </c>
       <c r="AM4">
-        <v>-103.653192268985</v>
+        <v>-144.8695745192862</v>
       </c>
       <c r="AN4">
-        <v>163.1035456589491</v>
+        <v>133.0893358579405</v>
       </c>
       <c r="AO4">
-        <v>16.25665454943076</v>
+        <v>2.394822226489772E-13</v>
       </c>
       <c r="AP4">
-        <v>-104.9129785376843</v>
+        <v>-142.8672784204022</v>
       </c>
       <c r="AQ4">
-        <v>160.9543898286496</v>
+        <v>128.2389811279577</v>
       </c>
     </row>
   </sheetData>
@@ -2137,22 +2137,22 @@
         <v>0.9229411060011539</v>
       </c>
       <c r="AL2">
-        <v>17.92198046293677</v>
+        <v>2.748152076411849E-13</v>
       </c>
       <c r="AM2">
-        <v>-106.5279586928746</v>
+        <v>-140.8543229646633</v>
       </c>
       <c r="AN2">
-        <v>158.1868465769574</v>
+        <v>122.4159013159207</v>
       </c>
       <c r="AO2">
-        <v>16.25665454943076</v>
+        <v>2.394822226489772E-13</v>
       </c>
       <c r="AP2">
-        <v>-104.9129785376843</v>
+        <v>-142.8672784204022</v>
       </c>
       <c r="AQ2">
-        <v>160.9543898286496</v>
+        <v>128.2389811279577</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2268,22 +2268,22 @@
         <v>0.9229411060011539</v>
       </c>
       <c r="AL3">
-        <v>14.82588342075279</v>
+        <v>2.146144121994619E-13</v>
       </c>
       <c r="AM3">
-        <v>-103.653192268985</v>
+        <v>-144.8695745192862</v>
       </c>
       <c r="AN3">
-        <v>163.1035456589491</v>
+        <v>133.0893358579405</v>
       </c>
       <c r="AO3">
-        <v>16.25665454943076</v>
+        <v>2.394822226489772E-13</v>
       </c>
       <c r="AP3">
-        <v>-104.9129785376843</v>
+        <v>-142.8672784204022</v>
       </c>
       <c r="AQ3">
-        <v>160.9543898286496</v>
+        <v>128.2389811279577</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2399,22 +2399,22 @@
         <v>0.9229411060011539</v>
       </c>
       <c r="AL4">
-        <v>14.82588342075279</v>
+        <v>2.130701848144365E-13</v>
       </c>
       <c r="AM4">
-        <v>-103.653192268985</v>
+        <v>-144.8695745192862</v>
       </c>
       <c r="AN4">
-        <v>163.1035456589491</v>
+        <v>133.0893358579405</v>
       </c>
       <c r="AO4">
-        <v>16.25665454943076</v>
+        <v>2.394822226489772E-13</v>
       </c>
       <c r="AP4">
-        <v>-104.9129785376843</v>
+        <v>-142.8672784204022</v>
       </c>
       <c r="AQ4">
-        <v>160.9543898286496</v>
+        <v>128.2389811279577</v>
       </c>
     </row>
   </sheetData>
@@ -2674,22 +2674,22 @@
         <v>0.8660254037883344</v>
       </c>
       <c r="AL2">
-        <v>3.075791948300062E-11</v>
+        <v>7.185583731871285E-13</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-179.9999999999019</v>
       </c>
       <c r="AN2">
-        <v>179.9999999999606</v>
+        <v>179.999999999895</v>
       </c>
       <c r="AO2">
-        <v>1.72302759424967E-10</v>
+        <v>5.047933624690928E-13</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>-179.9999999994768</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999998195</v>
+        <v>179.999999999472</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2805,22 +2805,22 @@
         <v>0.8660254037883344</v>
       </c>
       <c r="AL3">
-        <v>1.933384468832906E-10</v>
+        <v>3.481943761478323E-13</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-179.9999999994134</v>
       </c>
       <c r="AN3">
-        <v>179.9999999997987</v>
+        <v>179.99999999941</v>
       </c>
       <c r="AO3">
-        <v>1.72302759424967E-10</v>
+        <v>5.047933624690928E-13</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>-179.9999999994768</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999998195</v>
+        <v>179.999999999472</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2936,22 +2936,22 @@
         <v>0.8660254037883344</v>
       </c>
       <c r="AL4">
-        <v>1.933431770815825E-10</v>
+        <v>3.42567454859891E-13</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-179.9999999994133</v>
       </c>
       <c r="AN4">
-        <v>179.9999999997987</v>
+        <v>179.99999999941</v>
       </c>
       <c r="AO4">
-        <v>1.72302759424967E-10</v>
+        <v>5.047933624690928E-13</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>-179.9999999994768</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999998195</v>
+        <v>179.999999999472</v>
       </c>
     </row>
   </sheetData>
@@ -3211,22 +3211,22 @@
         <v>0.8660254037883344</v>
       </c>
       <c r="AL2">
-        <v>3.075791948300062E-11</v>
+        <v>7.185583731871285E-13</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-179.9999999999019</v>
       </c>
       <c r="AN2">
-        <v>179.9999999999606</v>
+        <v>179.999999999895</v>
       </c>
       <c r="AO2">
-        <v>1.72302759424967E-10</v>
+        <v>5.047933624690928E-13</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>-179.9999999994768</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999998195</v>
+        <v>179.999999999472</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3342,22 +3342,22 @@
         <v>0.8660254037883344</v>
       </c>
       <c r="AL3">
-        <v>1.933384468832906E-10</v>
+        <v>3.481943761478323E-13</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-179.9999999994134</v>
       </c>
       <c r="AN3">
-        <v>179.9999999997987</v>
+        <v>179.99999999941</v>
       </c>
       <c r="AO3">
-        <v>1.72302759424967E-10</v>
+        <v>5.047933624690928E-13</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>-179.9999999994768</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999998195</v>
+        <v>179.999999999472</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3473,22 +3473,22 @@
         <v>0.8660254037883344</v>
       </c>
       <c r="AL4">
-        <v>1.933431770815825E-10</v>
+        <v>3.42567454859891E-13</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-179.9999999994133</v>
       </c>
       <c r="AN4">
-        <v>179.9999999997987</v>
+        <v>179.99999999941</v>
       </c>
       <c r="AO4">
-        <v>1.72302759424967E-10</v>
+        <v>5.047933624690928E-13</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>-179.9999999994768</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999998195</v>
+        <v>179.999999999472</v>
       </c>
     </row>
   </sheetData>
@@ -3748,22 +3748,22 @@
         <v>0.8529812840863316</v>
       </c>
       <c r="AL2">
-        <v>17.57011779536515</v>
+        <v>2.863609645821946E-13</v>
       </c>
       <c r="AM2">
-        <v>-106.9885815758096</v>
+        <v>-141.4823925534191</v>
       </c>
       <c r="AN2">
-        <v>158.5647675412735</v>
+        <v>122.8363393546083</v>
       </c>
       <c r="AO2">
-        <v>15.93288697155593</v>
+        <v>2.220944979064366E-13</v>
       </c>
       <c r="AP2">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979142</v>
       </c>
       <c r="AQ2">
-        <v>162.0554462537874</v>
+        <v>131.6989175372502</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3879,22 +3879,22 @@
         <v>0.8529812840863316</v>
       </c>
       <c r="AL3">
-        <v>14.31307774380566</v>
+        <v>1.769616158300342E-13</v>
       </c>
       <c r="AM3">
-        <v>-97.89113682127687</v>
+        <v>-144.4405405825464</v>
       </c>
       <c r="AN3">
-        <v>164.6472678684481</v>
+        <v>138.2820504968733</v>
       </c>
       <c r="AO3">
-        <v>15.93288697155593</v>
+        <v>2.220944979064366E-13</v>
       </c>
       <c r="AP3">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979142</v>
       </c>
       <c r="AQ3">
-        <v>162.0554462537874</v>
+        <v>131.6989175372502</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -4010,22 +4010,22 @@
         <v>0.8529812840863316</v>
       </c>
       <c r="AL4">
-        <v>14.31307774380566</v>
+        <v>1.701746222203141E-13</v>
       </c>
       <c r="AM4">
-        <v>-97.89113682127687</v>
+        <v>-144.4405405825464</v>
       </c>
       <c r="AN4">
-        <v>164.6472678684481</v>
+        <v>138.2820504968734</v>
       </c>
       <c r="AO4">
-        <v>15.93288697155593</v>
+        <v>2.220944979064366E-13</v>
       </c>
       <c r="AP4">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979142</v>
       </c>
       <c r="AQ4">
-        <v>162.0554462537874</v>
+        <v>131.6989175372502</v>
       </c>
     </row>
   </sheetData>
@@ -4285,22 +4285,22 @@
         <v>0.8529812840863316</v>
       </c>
       <c r="AL2">
-        <v>17.57011779536515</v>
+        <v>2.863609645821946E-13</v>
       </c>
       <c r="AM2">
-        <v>-106.9885815758096</v>
+        <v>-141.4823925534191</v>
       </c>
       <c r="AN2">
-        <v>158.5647675412735</v>
+        <v>122.8363393546083</v>
       </c>
       <c r="AO2">
-        <v>15.93288697155593</v>
+        <v>2.220944979064366E-13</v>
       </c>
       <c r="AP2">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979142</v>
       </c>
       <c r="AQ2">
-        <v>162.0554462537874</v>
+        <v>131.6989175372502</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -4416,22 +4416,22 @@
         <v>0.8529812840863316</v>
       </c>
       <c r="AL3">
-        <v>14.31307774380566</v>
+        <v>1.769616158300342E-13</v>
       </c>
       <c r="AM3">
-        <v>-97.89113682127687</v>
+        <v>-144.4405405825464</v>
       </c>
       <c r="AN3">
-        <v>164.6472678684481</v>
+        <v>138.2820504968733</v>
       </c>
       <c r="AO3">
-        <v>15.93288697155593</v>
+        <v>2.220944979064366E-13</v>
       </c>
       <c r="AP3">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979142</v>
       </c>
       <c r="AQ3">
-        <v>162.0554462537874</v>
+        <v>131.6989175372502</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -4547,22 +4547,22 @@
         <v>0.8529812840863316</v>
       </c>
       <c r="AL4">
-        <v>14.31307774380566</v>
+        <v>1.701746222203141E-13</v>
       </c>
       <c r="AM4">
-        <v>-97.89113682127687</v>
+        <v>-144.4405405825464</v>
       </c>
       <c r="AN4">
-        <v>164.6472678684481</v>
+        <v>138.2820504968734</v>
       </c>
       <c r="AO4">
-        <v>15.93288697155593</v>
+        <v>2.220944979064366E-13</v>
       </c>
       <c r="AP4">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979142</v>
       </c>
       <c r="AQ4">
-        <v>162.0554462537874</v>
+        <v>131.6989175372502</v>
       </c>
     </row>
   </sheetData>
@@ -4822,22 +4822,22 @@
         <v>0.7582138091921399</v>
       </c>
       <c r="AL2">
-        <v>1.901478329142301</v>
+        <v>1.901478327576202</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>-178.0985216720061</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-12.54930673097703</v>
+        <v>-12.54930673106471</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>167.4506932690482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -4953,22 +4953,22 @@
         <v>0.7582138091921399</v>
       </c>
       <c r="AL3">
-        <v>-8.15919081743013</v>
+        <v>-8.159190817480193</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>171.8408091825957</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>-12.54930673097703</v>
+        <v>-12.54930673106471</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>167.4506932690482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -5084,22 +5084,22 @@
         <v>0.7582138091921399</v>
       </c>
       <c r="AL4">
-        <v>-8.159190817430147</v>
+        <v>-8.159190817480193</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>171.8408091825957</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>-12.54930673097703</v>
+        <v>-12.54930673106471</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>167.4506932690482</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5359,22 +5359,22 @@
         <v>0.7582138091921399</v>
       </c>
       <c r="AL2">
-        <v>1.901478329142301</v>
+        <v>1.901478327576202</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>-178.0985216720061</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-12.54930673097703</v>
+        <v>-12.54930673106471</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>167.4506932690482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -5490,22 +5490,22 @@
         <v>0.7582138091921399</v>
       </c>
       <c r="AL3">
-        <v>-8.15919081743013</v>
+        <v>-8.159190817480193</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>171.8408091825957</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>-12.54930673097703</v>
+        <v>-12.54930673106471</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>167.4506932690482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -5621,22 +5621,22 @@
         <v>0.7582138091921399</v>
       </c>
       <c r="AL4">
-        <v>-8.159190817430147</v>
+        <v>-8.159190817480193</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>171.8408091825957</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>-12.54930673097703</v>
+        <v>-12.54930673106471</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>167.4506932690482</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5896,22 +5896,22 @@
         <v>0.9269953121453623</v>
       </c>
       <c r="AL2">
-        <v>21.37648613032177</v>
+        <v>-2.812448403493931</v>
       </c>
       <c r="AM2">
-        <v>-100.0510163396028</v>
+        <v>-131.7251047866139</v>
       </c>
       <c r="AN2">
-        <v>148.8262714365576</v>
+        <v>114.4099680154636</v>
       </c>
       <c r="AO2">
-        <v>20.04987189152943</v>
+        <v>-4.848761592761851</v>
       </c>
       <c r="AP2">
-        <v>-99.52967390014052</v>
+        <v>-124.7725804416549</v>
       </c>
       <c r="AQ2">
-        <v>151.2494214275798</v>
+        <v>110.5646387075895</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -6027,22 +6027,22 @@
         <v>0.9269953121453623</v>
       </c>
       <c r="AL3">
-        <v>18.80758200140518</v>
+        <v>-5.152593250146386</v>
       </c>
       <c r="AM3">
-        <v>-99.08615255179583</v>
+        <v>-120.5446324917087</v>
       </c>
       <c r="AN3">
-        <v>153.245523965157</v>
+        <v>107.3340416810596</v>
       </c>
       <c r="AO3">
-        <v>20.04987189152943</v>
+        <v>-4.848761592761851</v>
       </c>
       <c r="AP3">
-        <v>-99.52967390014052</v>
+        <v>-124.7725804416549</v>
       </c>
       <c r="AQ3">
-        <v>151.2494214275798</v>
+        <v>110.5646387075895</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -6158,22 +6158,22 @@
         <v>0.9269953121453623</v>
       </c>
       <c r="AL4">
-        <v>18.80758200140518</v>
+        <v>-5.152593250146388</v>
       </c>
       <c r="AM4">
-        <v>-99.08615255179583</v>
+        <v>-120.5446324917087</v>
       </c>
       <c r="AN4">
-        <v>153.245523965157</v>
+        <v>107.3340416810596</v>
       </c>
       <c r="AO4">
-        <v>20.04987189152943</v>
+        <v>-4.848761592761851</v>
       </c>
       <c r="AP4">
-        <v>-99.52967390014052</v>
+        <v>-124.7725804416549</v>
       </c>
       <c r="AQ4">
-        <v>151.2494214275798</v>
+        <v>110.5646387075895</v>
       </c>
     </row>
   </sheetData>
@@ -6289,10 +6289,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>87.32801736352474</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>77.77984578051343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -6342,10 +6342,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>71.78826692943711</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>77.77984578051343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -6395,10 +6395,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>71.7882669294371</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>77.77984578051343</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6658,22 +6658,22 @@
         <v>0.9269953121453623</v>
       </c>
       <c r="AL2">
-        <v>21.37648613032177</v>
+        <v>-2.812448403493931</v>
       </c>
       <c r="AM2">
-        <v>-100.0510163396028</v>
+        <v>-131.7251047866139</v>
       </c>
       <c r="AN2">
-        <v>148.8262714365576</v>
+        <v>114.4099680154636</v>
       </c>
       <c r="AO2">
-        <v>20.04987189152943</v>
+        <v>-4.848761592761851</v>
       </c>
       <c r="AP2">
-        <v>-99.52967390014052</v>
+        <v>-124.7725804416549</v>
       </c>
       <c r="AQ2">
-        <v>151.2494214275798</v>
+        <v>110.5646387075895</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -6789,22 +6789,22 @@
         <v>0.9269953121453623</v>
       </c>
       <c r="AL3">
-        <v>18.80758200140518</v>
+        <v>-5.152593250146386</v>
       </c>
       <c r="AM3">
-        <v>-99.08615255179583</v>
+        <v>-120.5446324917087</v>
       </c>
       <c r="AN3">
-        <v>153.245523965157</v>
+        <v>107.3340416810596</v>
       </c>
       <c r="AO3">
-        <v>20.04987189152943</v>
+        <v>-4.848761592761851</v>
       </c>
       <c r="AP3">
-        <v>-99.52967390014052</v>
+        <v>-124.7725804416549</v>
       </c>
       <c r="AQ3">
-        <v>151.2494214275798</v>
+        <v>110.5646387075895</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -6920,22 +6920,22 @@
         <v>0.9269953121453623</v>
       </c>
       <c r="AL4">
-        <v>18.80758200140518</v>
+        <v>-5.152593250146388</v>
       </c>
       <c r="AM4">
-        <v>-99.08615255179583</v>
+        <v>-120.5446324917087</v>
       </c>
       <c r="AN4">
-        <v>153.245523965157</v>
+        <v>107.3340416810596</v>
       </c>
       <c r="AO4">
-        <v>20.04987189152943</v>
+        <v>-4.848761592761851</v>
       </c>
       <c r="AP4">
-        <v>-99.52967390014052</v>
+        <v>-124.7725804416549</v>
       </c>
       <c r="AQ4">
-        <v>151.2494214275798</v>
+        <v>110.5646387075895</v>
       </c>
     </row>
   </sheetData>
@@ -7195,22 +7195,22 @@
         <v>0.7600470197788216</v>
       </c>
       <c r="AL2">
-        <v>1.95618466591987</v>
+        <v>1.956184665585291</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>-178.0438153355905</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-8.96391671547234</v>
+        <v>-8.963916715700918</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>171.0360832840941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -7326,22 +7326,22 @@
         <v>0.7600470197788216</v>
       </c>
       <c r="AL3">
-        <v>-5.370037654776083</v>
+        <v>-5.370037655010571</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>174.6299623447781</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>-8.96391671547234</v>
+        <v>-8.963916715700918</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>171.0360832840941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -7457,22 +7457,22 @@
         <v>0.7600470197788216</v>
       </c>
       <c r="AL4">
-        <v>-5.370037654776075</v>
+        <v>-5.370037655010546</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>174.6299623447781</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>-8.96391671547234</v>
+        <v>-8.963916715700918</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>171.0360832840941</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7732,22 +7732,22 @@
         <v>0.7600470197788216</v>
       </c>
       <c r="AL2">
-        <v>1.95618466591987</v>
+        <v>1.956184665585291</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>-178.0438153355905</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-8.96391671547234</v>
+        <v>-8.963916715700918</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>171.0360832840941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -7863,22 +7863,22 @@
         <v>0.7600470197788216</v>
       </c>
       <c r="AL3">
-        <v>-5.370037654776083</v>
+        <v>-5.370037655010571</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>174.6299623447781</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>-8.96391671547234</v>
+        <v>-8.963916715700918</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>171.0360832840941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -7994,22 +7994,22 @@
         <v>0.7600470197788216</v>
       </c>
       <c r="AL4">
-        <v>-5.370037654776075</v>
+        <v>-5.370037655010546</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>174.6299623447781</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>-8.96391671547234</v>
+        <v>-8.963916715700918</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>171.0360832840941</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8269,22 +8269,22 @@
         <v>0.8519908784415503</v>
       </c>
       <c r="AL2">
-        <v>21.04635017867751</v>
+        <v>-2.938246143187484</v>
       </c>
       <c r="AM2">
-        <v>-100.4045966786953</v>
+        <v>-132.1699663090589</v>
       </c>
       <c r="AN2">
-        <v>148.8123721892597</v>
+        <v>114.2695275236789</v>
       </c>
       <c r="AO2">
-        <v>19.79601272016655</v>
+        <v>-6.041714294994666</v>
       </c>
       <c r="AP2">
-        <v>-97.63434507042335</v>
+        <v>-119.0904607170832</v>
       </c>
       <c r="AQ2">
-        <v>152.8052215469075</v>
+        <v>109.6966006203678</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -8400,22 +8400,22 @@
         <v>0.8519908784415503</v>
       </c>
       <c r="AL3">
-        <v>18.52860513014168</v>
+        <v>-5.56914586356767</v>
       </c>
       <c r="AM3">
-        <v>-95.39765209811742</v>
+        <v>-112.3140680386485</v>
       </c>
       <c r="AN3">
-        <v>155.6936934678807</v>
+        <v>106.3666705175752</v>
       </c>
       <c r="AO3">
-        <v>19.79601272016655</v>
+        <v>-6.041714294994666</v>
       </c>
       <c r="AP3">
-        <v>-97.63434507042335</v>
+        <v>-119.0904607170832</v>
       </c>
       <c r="AQ3">
-        <v>152.8052215469075</v>
+        <v>109.6966006203678</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -8531,22 +8531,22 @@
         <v>0.8519908784415503</v>
       </c>
       <c r="AL4">
-        <v>18.52860513014167</v>
+        <v>-5.569145863567661</v>
       </c>
       <c r="AM4">
-        <v>-95.39765209811743</v>
+        <v>-112.3140680386485</v>
       </c>
       <c r="AN4">
-        <v>155.6936934678807</v>
+        <v>106.3666705175752</v>
       </c>
       <c r="AO4">
-        <v>19.79601272016655</v>
+        <v>-6.041714294994666</v>
       </c>
       <c r="AP4">
-        <v>-97.63434507042335</v>
+        <v>-119.0904607170832</v>
       </c>
       <c r="AQ4">
-        <v>152.8052215469075</v>
+        <v>109.6966006203678</v>
       </c>
     </row>
   </sheetData>
@@ -8806,22 +8806,22 @@
         <v>0.8519908784415503</v>
       </c>
       <c r="AL2">
-        <v>21.04635017867751</v>
+        <v>-2.938246143187484</v>
       </c>
       <c r="AM2">
-        <v>-100.4045966786953</v>
+        <v>-132.1699663090589</v>
       </c>
       <c r="AN2">
-        <v>148.8123721892597</v>
+        <v>114.2695275236789</v>
       </c>
       <c r="AO2">
-        <v>19.79601272016655</v>
+        <v>-6.041714294994666</v>
       </c>
       <c r="AP2">
-        <v>-97.63434507042335</v>
+        <v>-119.0904607170832</v>
       </c>
       <c r="AQ2">
-        <v>152.8052215469075</v>
+        <v>109.6966006203678</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -8937,22 +8937,22 @@
         <v>0.8519908784415503</v>
       </c>
       <c r="AL3">
-        <v>18.52860513014168</v>
+        <v>-5.56914586356767</v>
       </c>
       <c r="AM3">
-        <v>-95.39765209811742</v>
+        <v>-112.3140680386485</v>
       </c>
       <c r="AN3">
-        <v>155.6936934678807</v>
+        <v>106.3666705175752</v>
       </c>
       <c r="AO3">
-        <v>19.79601272016655</v>
+        <v>-6.041714294994666</v>
       </c>
       <c r="AP3">
-        <v>-97.63434507042335</v>
+        <v>-119.0904607170832</v>
       </c>
       <c r="AQ3">
-        <v>152.8052215469075</v>
+        <v>109.6966006203678</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -9068,22 +9068,22 @@
         <v>0.8519908784415503</v>
       </c>
       <c r="AL4">
-        <v>18.52860513014167</v>
+        <v>-5.569145863567661</v>
       </c>
       <c r="AM4">
-        <v>-95.39765209811743</v>
+        <v>-112.3140680386485</v>
       </c>
       <c r="AN4">
-        <v>155.6936934678807</v>
+        <v>106.3666705175752</v>
       </c>
       <c r="AO4">
-        <v>19.79601272016655</v>
+        <v>-6.041714294994666</v>
       </c>
       <c r="AP4">
-        <v>-97.63434507042335</v>
+        <v>-119.0904607170832</v>
       </c>
       <c r="AQ4">
-        <v>152.8052215469075</v>
+        <v>109.6966006203678</v>
       </c>
     </row>
   </sheetData>
@@ -9343,22 +9343,22 @@
         <v>0.8531457954306539</v>
       </c>
       <c r="AL2">
-        <v>81.01440611845995</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999582</v>
+        <v>-98.98559388134899</v>
       </c>
       <c r="AN2">
-        <v>99.10560112809871</v>
+        <v>99.10560112752574</v>
       </c>
       <c r="AO2">
-        <v>41.61848094116253</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999625</v>
+        <v>-138.3815190591708</v>
       </c>
       <c r="AQ2">
-        <v>116.1751351406228</v>
+        <v>116.1751351403554</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -9474,22 +9474,22 @@
         <v>0.8531457954306539</v>
       </c>
       <c r="AL3">
-        <v>34.10312086032285</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999618</v>
+        <v>-145.8968791398597</v>
       </c>
       <c r="AN3">
-        <v>123.7338998245408</v>
+        <v>123.7338998243826</v>
       </c>
       <c r="AO3">
-        <v>41.61848094116253</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999625</v>
+        <v>-138.3815190591708</v>
       </c>
       <c r="AQ3">
-        <v>116.1751351406228</v>
+        <v>116.1751351403554</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -9605,22 +9605,22 @@
         <v>0.8531457954306539</v>
       </c>
       <c r="AL4">
-        <v>34.10312086032287</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999618</v>
+        <v>-145.8968791398597</v>
       </c>
       <c r="AN4">
-        <v>123.7338998245408</v>
+        <v>123.7338998243826</v>
       </c>
       <c r="AO4">
-        <v>41.61848094116253</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999625</v>
+        <v>-138.3815190591708</v>
       </c>
       <c r="AQ4">
-        <v>116.1751351406228</v>
+        <v>116.1751351403554</v>
       </c>
     </row>
   </sheetData>
@@ -9880,22 +9880,22 @@
         <v>0.8531457954306539</v>
       </c>
       <c r="AL2">
-        <v>81.01440611845995</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999582</v>
+        <v>-98.98559388134899</v>
       </c>
       <c r="AN2">
-        <v>99.10560112809871</v>
+        <v>99.10560112752574</v>
       </c>
       <c r="AO2">
-        <v>41.61848094116253</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999625</v>
+        <v>-138.3815190591708</v>
       </c>
       <c r="AQ2">
-        <v>116.1751351406228</v>
+        <v>116.1751351403554</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -10011,22 +10011,22 @@
         <v>0.8531457954306539</v>
       </c>
       <c r="AL3">
-        <v>34.10312086032285</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999618</v>
+        <v>-145.8968791398597</v>
       </c>
       <c r="AN3">
-        <v>123.7338998245408</v>
+        <v>123.7338998243826</v>
       </c>
       <c r="AO3">
-        <v>41.61848094116253</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999625</v>
+        <v>-138.3815190591708</v>
       </c>
       <c r="AQ3">
-        <v>116.1751351406228</v>
+        <v>116.1751351403554</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -10142,22 +10142,22 @@
         <v>0.8531457954306539</v>
       </c>
       <c r="AL4">
-        <v>34.10312086032287</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999618</v>
+        <v>-145.8968791398597</v>
       </c>
       <c r="AN4">
-        <v>123.7338998245408</v>
+        <v>123.7338998243826</v>
       </c>
       <c r="AO4">
-        <v>41.61848094116253</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999625</v>
+        <v>-138.3815190591708</v>
       </c>
       <c r="AQ4">
-        <v>116.1751351406228</v>
+        <v>116.1751351403554</v>
       </c>
     </row>
   </sheetData>
@@ -10417,22 +10417,22 @@
         <v>1.016735453172992</v>
       </c>
       <c r="AL2">
-        <v>29.15652802099639</v>
+        <v>-7.854239822580857</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999643</v>
+        <v>-118.0198552812533</v>
       </c>
       <c r="AN2">
-        <v>141.2519843803282</v>
+        <v>115.8450719166575</v>
       </c>
       <c r="AO2">
-        <v>30.18757494985232</v>
+        <v>-3.696954605126991</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999635</v>
+        <v>-125.2588540451336</v>
       </c>
       <c r="AQ2">
-        <v>140.9316649134272</v>
+        <v>119.4039268056037</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -10548,22 +10548,22 @@
         <v>1.016735453172992</v>
       </c>
       <c r="AL3">
-        <v>30.86696176443034</v>
+        <v>-0.7534097722321237</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999629</v>
+        <v>-130.1253494477632</v>
       </c>
       <c r="AN3">
-        <v>140.5975349461755</v>
+        <v>121.9959763794489</v>
       </c>
       <c r="AO3">
-        <v>30.18757494985232</v>
+        <v>-3.696954605126991</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999635</v>
+        <v>-125.2588540451336</v>
       </c>
       <c r="AQ3">
-        <v>140.9316649134272</v>
+        <v>119.4039268056037</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -10679,22 +10679,22 @@
         <v>1.016735453172992</v>
       </c>
       <c r="AL4">
-        <v>30.86696176443034</v>
+        <v>-0.7534097722321188</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999629</v>
+        <v>-130.1253494477632</v>
       </c>
       <c r="AN4">
-        <v>140.5975349461756</v>
+        <v>121.9959763794489</v>
       </c>
       <c r="AO4">
-        <v>30.18757494985232</v>
+        <v>-3.696954605126991</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999635</v>
+        <v>-125.2588540451336</v>
       </c>
       <c r="AQ4">
-        <v>140.9316649134272</v>
+        <v>119.4039268056037</v>
       </c>
     </row>
   </sheetData>
@@ -10954,22 +10954,22 @@
         <v>1.016735453172992</v>
       </c>
       <c r="AL2">
-        <v>29.15652802099639</v>
+        <v>-7.854239822580857</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999643</v>
+        <v>-118.0198552812533</v>
       </c>
       <c r="AN2">
-        <v>141.2519843803282</v>
+        <v>115.8450719166575</v>
       </c>
       <c r="AO2">
-        <v>30.18757494985232</v>
+        <v>-3.696954605126991</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999635</v>
+        <v>-125.2588540451336</v>
       </c>
       <c r="AQ2">
-        <v>140.9316649134272</v>
+        <v>119.4039268056037</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -11085,22 +11085,22 @@
         <v>1.016735453172992</v>
       </c>
       <c r="AL3">
-        <v>30.86696176443034</v>
+        <v>-0.7534097722321237</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999629</v>
+        <v>-130.1253494477632</v>
       </c>
       <c r="AN3">
-        <v>140.5975349461755</v>
+        <v>121.9959763794489</v>
       </c>
       <c r="AO3">
-        <v>30.18757494985232</v>
+        <v>-3.696954605126991</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999635</v>
+        <v>-125.2588540451336</v>
       </c>
       <c r="AQ3">
-        <v>140.9316649134272</v>
+        <v>119.4039268056037</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -11216,22 +11216,22 @@
         <v>1.016735453172992</v>
       </c>
       <c r="AL4">
-        <v>30.86696176443034</v>
+        <v>-0.7534097722321188</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999629</v>
+        <v>-130.1253494477632</v>
       </c>
       <c r="AN4">
-        <v>140.5975349461756</v>
+        <v>121.9959763794489</v>
       </c>
       <c r="AO4">
-        <v>30.18757494985232</v>
+        <v>-3.696954605126991</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999635</v>
+        <v>-125.2588540451336</v>
       </c>
       <c r="AQ4">
-        <v>140.9316649134272</v>
+        <v>119.4039268056037</v>
       </c>
     </row>
   </sheetData>
@@ -11491,22 +11491,22 @@
         <v>0.8628254870246111</v>
       </c>
       <c r="AL2">
-        <v>81.17654846430194</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999578</v>
+        <v>-98.82345153514743</v>
       </c>
       <c r="AN2">
-        <v>98.94207501580973</v>
+        <v>98.94207501541858</v>
       </c>
       <c r="AO2">
-        <v>30.46789040255447</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999625</v>
+        <v>-149.53210959726</v>
       </c>
       <c r="AQ2">
-        <v>123.1025137508452</v>
+        <v>123.1025137508267</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -11622,22 +11622,22 @@
         <v>0.8628254870246111</v>
       </c>
       <c r="AL3">
-        <v>30.0695645998088</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999606</v>
+        <v>-149.9304354001183</v>
       </c>
       <c r="AN3">
-        <v>130.4806106058648</v>
+        <v>130.4806106058635</v>
       </c>
       <c r="AO3">
-        <v>30.46789040255447</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999625</v>
+        <v>-149.53210959726</v>
       </c>
       <c r="AQ3">
-        <v>123.1025137508452</v>
+        <v>123.1025137508267</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -11753,22 +11753,22 @@
         <v>0.8628254870246111</v>
       </c>
       <c r="AL4">
-        <v>30.0695645998088</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999608</v>
+        <v>-149.9304354001183</v>
       </c>
       <c r="AN4">
-        <v>130.4806106058648</v>
+        <v>130.4806106058635</v>
       </c>
       <c r="AO4">
-        <v>30.46789040255447</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999625</v>
+        <v>-149.53210959726</v>
       </c>
       <c r="AQ4">
-        <v>123.1025137508452</v>
+        <v>123.1025137508267</v>
       </c>
     </row>
   </sheetData>
@@ -11884,10 +11884,10 @@
         <v>0.8020156209364422</v>
       </c>
       <c r="P2">
-        <v>45.00000000014263</v>
+        <v>-10.05101633965329</v>
       </c>
       <c r="Q2">
-        <v>45.00000000014392</v>
+        <v>-9.529673900180386</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -11937,10 +11937,10 @@
         <v>0.8020156209364422</v>
       </c>
       <c r="P3">
-        <v>45.00000000014496</v>
+        <v>-9.086152551827228</v>
       </c>
       <c r="Q3">
-        <v>45.00000000014392</v>
+        <v>-9.529673900180386</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -11990,10 +11990,10 @@
         <v>0.8020156209364422</v>
       </c>
       <c r="P4">
-        <v>45.00000000014496</v>
+        <v>-9.086152551827231</v>
       </c>
       <c r="Q4">
-        <v>45.00000000014392</v>
+        <v>-9.529673900180386</v>
       </c>
     </row>
   </sheetData>
@@ -12253,22 +12253,22 @@
         <v>0.8628254870246111</v>
       </c>
       <c r="AL2">
-        <v>81.17654846430194</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999578</v>
+        <v>-98.82345153514743</v>
       </c>
       <c r="AN2">
-        <v>98.94207501580973</v>
+        <v>98.94207501541858</v>
       </c>
       <c r="AO2">
-        <v>30.46789040255447</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999625</v>
+        <v>-149.53210959726</v>
       </c>
       <c r="AQ2">
-        <v>123.1025137508452</v>
+        <v>123.1025137508267</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -12384,22 +12384,22 @@
         <v>0.8628254870246111</v>
       </c>
       <c r="AL3">
-        <v>30.0695645998088</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999606</v>
+        <v>-149.9304354001183</v>
       </c>
       <c r="AN3">
-        <v>130.4806106058648</v>
+        <v>130.4806106058635</v>
       </c>
       <c r="AO3">
-        <v>30.46789040255447</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999625</v>
+        <v>-149.53210959726</v>
       </c>
       <c r="AQ3">
-        <v>123.1025137508452</v>
+        <v>123.1025137508267</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -12515,22 +12515,22 @@
         <v>0.8628254870246111</v>
       </c>
       <c r="AL4">
-        <v>30.0695645998088</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999608</v>
+        <v>-149.9304354001183</v>
       </c>
       <c r="AN4">
-        <v>130.4806106058648</v>
+        <v>130.4806106058635</v>
       </c>
       <c r="AO4">
-        <v>30.46789040255447</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999625</v>
+        <v>-149.53210959726</v>
       </c>
       <c r="AQ4">
-        <v>123.1025137508452</v>
+        <v>123.1025137508267</v>
       </c>
     </row>
   </sheetData>
@@ -12790,22 +12790,22 @@
         <v>0.9186095940373514</v>
       </c>
       <c r="AL2">
-        <v>29.1849732995707</v>
+        <v>-8.137528279291752</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999642</v>
+        <v>-117.9012226105219</v>
       </c>
       <c r="AN2">
-        <v>140.9086050006529</v>
+        <v>115.6592835567051</v>
       </c>
       <c r="AO2">
-        <v>30.71305554108394</v>
+        <v>1.743384674680097</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999631</v>
+        <v>-130.2389145113725</v>
       </c>
       <c r="AQ2">
-        <v>141.3373910967656</v>
+        <v>120.9740241512131</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -12921,22 +12921,22 @@
         <v>0.9186095940373514</v>
       </c>
       <c r="AL3">
-        <v>31.60239136178862</v>
+        <v>7.652000503503865</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999621</v>
+        <v>-136.5738183130388</v>
       </c>
       <c r="AN3">
-        <v>141.3786200001422</v>
+        <v>124.7454431308226</v>
       </c>
       <c r="AO3">
-        <v>30.71305554108394</v>
+        <v>1.743384674680097</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999631</v>
+        <v>-130.2389145113725</v>
       </c>
       <c r="AQ3">
-        <v>141.3373910967656</v>
+        <v>120.9740241512131</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -13052,22 +13052,22 @@
         <v>0.9186095940373514</v>
       </c>
       <c r="AL4">
-        <v>31.60239136178862</v>
+        <v>7.652000503503857</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999621</v>
+        <v>-136.5738183130388</v>
       </c>
       <c r="AN4">
-        <v>141.3786200001421</v>
+        <v>124.7454431308226</v>
       </c>
       <c r="AO4">
-        <v>30.71305554108394</v>
+        <v>1.743384674680097</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999631</v>
+        <v>-130.2389145113725</v>
       </c>
       <c r="AQ4">
-        <v>141.3373910967656</v>
+        <v>120.9740241512131</v>
       </c>
     </row>
   </sheetData>
@@ -13327,22 +13327,22 @@
         <v>0.9186095940373514</v>
       </c>
       <c r="AL2">
-        <v>29.1849732995707</v>
+        <v>-8.137528279291752</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999642</v>
+        <v>-117.9012226105219</v>
       </c>
       <c r="AN2">
-        <v>140.9086050006529</v>
+        <v>115.6592835567051</v>
       </c>
       <c r="AO2">
-        <v>30.71305554108394</v>
+        <v>1.743384674680097</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999631</v>
+        <v>-130.2389145113725</v>
       </c>
       <c r="AQ2">
-        <v>141.3373910967656</v>
+        <v>120.9740241512131</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -13458,22 +13458,22 @@
         <v>0.9186095940373514</v>
       </c>
       <c r="AL3">
-        <v>31.60239136178862</v>
+        <v>7.652000503503865</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999621</v>
+        <v>-136.5738183130388</v>
       </c>
       <c r="AN3">
-        <v>141.3786200001422</v>
+        <v>124.7454431308226</v>
       </c>
       <c r="AO3">
-        <v>30.71305554108394</v>
+        <v>1.743384674680097</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999631</v>
+        <v>-130.2389145113725</v>
       </c>
       <c r="AQ3">
-        <v>141.3373910967656</v>
+        <v>120.9740241512131</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -13589,22 +13589,22 @@
         <v>0.9186095940373514</v>
       </c>
       <c r="AL4">
-        <v>31.60239136178862</v>
+        <v>7.652000503503857</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999621</v>
+        <v>-136.5738183130388</v>
       </c>
       <c r="AN4">
-        <v>141.3786200001421</v>
+        <v>124.7454431308226</v>
       </c>
       <c r="AO4">
-        <v>30.71305554108394</v>
+        <v>1.743384674680097</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999631</v>
+        <v>-130.2389145113725</v>
       </c>
       <c r="AQ4">
-        <v>141.3373910967656</v>
+        <v>120.9740241512131</v>
       </c>
     </row>
   </sheetData>
@@ -13720,10 +13720,10 @@
         <v>0.8020156209364422</v>
       </c>
       <c r="P2">
-        <v>45.00000000014263</v>
+        <v>-10.05101633965329</v>
       </c>
       <c r="Q2">
-        <v>45.00000000014392</v>
+        <v>-9.529673900180386</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -13773,10 +13773,10 @@
         <v>0.8020156209364422</v>
       </c>
       <c r="P3">
-        <v>45.00000000014496</v>
+        <v>-9.086152551827228</v>
       </c>
       <c r="Q3">
-        <v>45.00000000014392</v>
+        <v>-9.529673900180386</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -13826,10 +13826,10 @@
         <v>0.8020156209364422</v>
       </c>
       <c r="P4">
-        <v>45.00000000014496</v>
+        <v>-9.086152551827231</v>
       </c>
       <c r="Q4">
-        <v>45.00000000014392</v>
+        <v>-9.529673900180386</v>
       </c>
     </row>
   </sheetData>
@@ -13945,10 +13945,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>87.26693929749287</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>69.6723164331699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -13998,10 +13998,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>59.5744304512782</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>69.6723164331699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -14051,10 +14051,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>59.5744304512782</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>69.6723164331699</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14170,10 +14170,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>87.26693929749287</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>69.6723164331699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -14223,10 +14223,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>59.5744304512782</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>69.6723164331699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -14276,10 +14276,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>59.5744304512782</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>69.6723164331699</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14395,10 +14395,10 @@
         <v>0.7019303077896073</v>
       </c>
       <c r="P2">
-        <v>44.99999999986318</v>
+        <v>-10.4045966787725</v>
       </c>
       <c r="Q2">
-        <v>44.99999999986817</v>
+        <v>-7.634345070499261</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -14448,10 +14448,10 @@
         <v>0.7019303077896073</v>
       </c>
       <c r="P3">
-        <v>44.99999999987254</v>
+        <v>-5.397652098192608</v>
       </c>
       <c r="Q3">
-        <v>44.99999999986817</v>
+        <v>-7.634345070499261</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -14501,10 +14501,10 @@
         <v>0.7019303077896073</v>
       </c>
       <c r="P4">
-        <v>44.99999999987253</v>
+        <v>-5.397652098192621</v>
       </c>
       <c r="Q4">
-        <v>44.99999999986817</v>
+        <v>-7.634345070499261</v>
       </c>
     </row>
   </sheetData>
@@ -14620,10 +14620,10 @@
         <v>0.7019303077896073</v>
       </c>
       <c r="P2">
-        <v>44.99999999986318</v>
+        <v>-10.4045966787725</v>
       </c>
       <c r="Q2">
-        <v>44.99999999986817</v>
+        <v>-7.634345070499261</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -14673,10 +14673,10 @@
         <v>0.7019303077896073</v>
       </c>
       <c r="P3">
-        <v>44.99999999987254</v>
+        <v>-5.397652098192608</v>
       </c>
       <c r="Q3">
-        <v>44.99999999986817</v>
+        <v>-7.634345070499261</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -14726,10 +14726,10 @@
         <v>0.7019303077896073</v>
       </c>
       <c r="P4">
-        <v>44.99999999987253</v>
+        <v>-5.397652098192621</v>
       </c>
       <c r="Q4">
-        <v>44.99999999986817</v>
+        <v>-7.634345070499261</v>
       </c>
     </row>
   </sheetData>
@@ -14989,22 +14989,22 @@
         <v>0.952627964804756</v>
       </c>
       <c r="AL2">
-        <v>-4.032688494405956E-12</v>
+        <v>7.515713026902094E-13</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>179.9999999999791</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999999899</v>
+        <v>-179.9999999999859</v>
       </c>
       <c r="AO2">
-        <v>-1.247867849525495E-11</v>
+        <v>5.734916888821314E-13</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>179.9999999999541</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999593</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -15120,22 +15120,22 @@
         <v>0.952627964804756</v>
       </c>
       <c r="AL3">
-        <v>-1.467424743646772E-11</v>
+        <v>4.606928895877844E-13</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>179.9999999999478</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999999788</v>
+        <v>-179.9999999999519</v>
       </c>
       <c r="AO3">
-        <v>-1.247867849525495E-11</v>
+        <v>5.734916888821314E-13</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>179.9999999999541</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999593</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -15251,22 +15251,22 @@
         <v>0.952627964804756</v>
       </c>
       <c r="AL4">
-        <v>-1.466564161011486E-11</v>
+        <v>4.56253149412285E-13</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>179.9999999999478</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999999788</v>
+        <v>-179.9999999999519</v>
       </c>
       <c r="AO4">
-        <v>-1.247867849525495E-11</v>
+        <v>5.734916888821314E-13</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>179.9999999999541</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999593</v>
       </c>
     </row>
   </sheetData>
